--- a/docentes/Ortega Valle Manuel - Estadisticos 20211.xlsx
+++ b/docentes/Ortega Valle Manuel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>Mat</t>
   </si>
@@ -86,6 +86,99 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>CELICEO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TLEHUACTLE</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>PAOLA</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>NURIEL</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1127,6 +1220,259 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051420227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Ortega Valle Manuel - Estadisticos 20211.xlsx
+++ b/docentes/Ortega Valle Manuel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>Mat</t>
   </si>
@@ -88,6 +88,21 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
@@ -100,9 +115,6 @@
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
     <t>TEHUINTLE</t>
   </si>
   <si>
@@ -115,10 +127,19 @@
     <t>NARVAEZ</t>
   </si>
   <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
   </si>
   <si>
     <t>CELICEO</t>
@@ -142,10 +163,19 @@
     <t>TLEHUACTLE</t>
   </si>
   <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
+    <t>AYELEN</t>
+  </si>
+  <si>
+    <t>MARLENE ALICIA</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO</t>
   </si>
   <si>
     <t>PAOLA</t>
@@ -173,12 +203,6 @@
   </si>
   <si>
     <t>ARIEL</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>YAIR ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,22 +1246,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920234</v>
+        <v>19330051920151</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1245,22 +1269,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920237</v>
+        <v>19330051920140</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1268,22 +1292,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051420227</v>
+        <v>19330051920202</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1291,68 +1315,68 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920131</v>
+        <v>19330051920003</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920139</v>
+        <v>18330051920168</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920141</v>
+        <v>19330051920234</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1360,45 +1384,45 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920120</v>
+        <v>19330051920237</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920200</v>
+        <v>19330051420227</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1406,22 +1430,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920209</v>
+        <v>19330051920131</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1429,48 +1453,117 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920003</v>
+        <v>19330051920139</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920168</v>
+        <v>19330051920141</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920120</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
         <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
